--- a/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test - Copy (2).xlsx
+++ b/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test - Copy (2).xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emil.hristov\OneDrive - Tiebreak Solutions\Stuff\coding\ASP.NET\UseEx_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naxex-my.sharepoint.com/personal/emil_hristov_tiebreak_solutions/Documents/Stuff/coding/ASP.NET/UseEx_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867C3A93-C833-4AAB-8187-8B2A052F3F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{867C3A93-C833-4AAB-8187-8B2A052F3F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A76211B5-AD62-4A4F-AB3B-AA4E453761FA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDRs-05_11_09_2022-58" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDRs-05_11_09_2022-58'!$A$1:$G$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$A$590</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -630,6 +631,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -927,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="L152" sqref="L152"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,7 +2195,7 @@
         <v>44900.817106481481</v>
       </c>
       <c r="B55" s="2">
-        <v>448455641653</v>
+        <v>448455642107</v>
       </c>
       <c r="C55" s="2">
         <v>584247273078</v>
@@ -2282,7 +2287,7 @@
         <v>44597.817106481481</v>
       </c>
       <c r="B59" s="2">
-        <v>448455641653</v>
+        <v>551148582908</v>
       </c>
       <c r="C59" s="2">
         <v>584247273078</v>
@@ -2305,7 +2310,7 @@
         <v>44625.817106481481</v>
       </c>
       <c r="B60" s="2">
-        <v>448455641653</v>
+        <v>448455600000</v>
       </c>
       <c r="C60" s="2">
         <v>584247273078</v>
@@ -2328,7 +2333,7 @@
         <v>44747.817106481481</v>
       </c>
       <c r="B61" s="2">
-        <v>448455641653</v>
+        <v>551148582898</v>
       </c>
       <c r="C61" s="2">
         <v>584247273078</v>
@@ -3294,7 +3299,7 @@
         <v>44900.817106481481</v>
       </c>
       <c r="B103" s="2">
-        <v>448455641653</v>
+        <v>448455642107</v>
       </c>
       <c r="C103" s="2">
         <v>584247273078</v>
@@ -4462,7 +4467,146 @@
         <v>13</v>
       </c>
     </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>44900.81517361111</v>
+      </c>
+      <c r="B154" s="2">
+        <v>448455642107</v>
+      </c>
+      <c r="C154" s="2">
+        <v>448455642100</v>
+      </c>
+      <c r="D154">
+        <v>58424</v>
+      </c>
+      <c r="E154">
+        <v>5</v>
+      </c>
+      <c r="F154">
+        <v>157</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44748.81517361111</v>
+      </c>
+      <c r="B155" s="2">
+        <v>448455642106</v>
+      </c>
+      <c r="C155" s="2">
+        <v>448455642100</v>
+      </c>
+      <c r="D155">
+        <v>58424</v>
+      </c>
+      <c r="E155">
+        <v>5</v>
+      </c>
+      <c r="F155">
+        <v>157</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>44718.81517361111</v>
+      </c>
+      <c r="B156" s="2">
+        <v>359886014369</v>
+      </c>
+      <c r="C156" s="2">
+        <v>448455642100</v>
+      </c>
+      <c r="D156">
+        <v>58424</v>
+      </c>
+      <c r="E156">
+        <v>5</v>
+      </c>
+      <c r="F156">
+        <v>157</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>44901.81517361111</v>
+      </c>
+      <c r="B157" s="2">
+        <v>27104439916</v>
+      </c>
+      <c r="C157" s="2">
+        <v>448455642100</v>
+      </c>
+      <c r="D157">
+        <v>58424</v>
+      </c>
+      <c r="E157">
+        <v>5</v>
+      </c>
+      <c r="F157">
+        <v>157</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44901.81517361111</v>
+      </c>
+      <c r="B158" s="2">
+        <v>551148582834</v>
+      </c>
+      <c r="C158" s="2">
+        <v>448455642100</v>
+      </c>
+      <c r="D158">
+        <v>58424</v>
+      </c>
+      <c r="E158">
+        <v>5</v>
+      </c>
+      <c r="F158">
+        <v>157</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44901.81517361111</v>
+      </c>
+      <c r="B159" s="2">
+        <v>551148582910</v>
+      </c>
+      <c r="C159" s="2">
+        <v>448455642100</v>
+      </c>
+      <c r="D159">
+        <v>58424</v>
+      </c>
+      <c r="E159">
+        <v>5</v>
+      </c>
+      <c r="F159">
+        <v>157</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G154" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test - Copy (2).xlsx
+++ b/Web/UserEx.Web/wwwroot/Files/CDRs-05_11_09_2022-58_Test - Copy (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://naxex-my.sharepoint.com/personal/emil_hristov_tiebreak_solutions/Documents/Stuff/coding/ASP.NET/UseEx_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{867C3A93-C833-4AAB-8187-8B2A052F3F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A76211B5-AD62-4A4F-AB3B-AA4E453761FA}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{867C3A93-C833-4AAB-8187-8B2A052F3F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{233E95CF-DD54-420D-BD01-B4F5724CCAF9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CDRs-05_11_09_2022-58" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>DIDlogic</t>
+  </si>
+  <si>
+    <t>Bezeq</t>
   </si>
 </sst>
 </file>
@@ -932,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="L161" sqref="L161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,6 +4606,29 @@
       </c>
       <c r="G159" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>44901.81517361111</v>
+      </c>
+      <c r="B160" s="2">
+        <v>551148582910</v>
+      </c>
+      <c r="C160" s="2">
+        <v>448455642100</v>
+      </c>
+      <c r="D160">
+        <v>58424</v>
+      </c>
+      <c r="E160">
+        <v>5</v>
+      </c>
+      <c r="F160">
+        <v>157</v>
+      </c>
+      <c r="G160" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
